--- a/biology/Zoologie/Iiwi_rouge/Iiwi_rouge.xlsx
+++ b/biology/Zoologie/Iiwi_rouge/Iiwi_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drepanis coccinea
 Le Iiwi rouge [iiwi ʁuʒ] (Drepanis coccinea), aussi orthographié ʻIʻiwi, est une espèce de passereaux de la famille des Fringillidae. D'abord classée comme unique représentant du genre Vestiaria par Feliks Paweł Jarocki en 1821, l'espèce fait désormais partie du genre Drepanis.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique d'Hawaï. 
 </t>
@@ -543,9 +557,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se nourrit du nectar des fleurs grâce à son bec recourbé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se nourrit du nectar des fleurs grâce à son bec recourbé.
 </t>
         </is>
       </c>
